--- a/config_12.29/box_exchange_server.xlsx
+++ b/config_12.29/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="678">
   <si>
     <t>id|</t>
   </si>
@@ -4015,7 +4015,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4115,8 +4115,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4177,6 +4184,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -4217,7 +4230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4402,6 +4415,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4681,16 +4719,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K63" sqref="K63"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="18" customWidth="1"/>
     <col min="2" max="2" width="28.75" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="27.875" style="6" customWidth="1"/>
@@ -4706,7 +4744,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4744,7 +4782,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5">
-      <c r="A2" s="1">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4770,7 +4808,7 @@
       <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:17" ht="16.5">
-      <c r="A3" s="1">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4796,7 +4834,7 @@
       <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:17" ht="16.5">
-      <c r="A4" s="1">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4822,7 +4860,7 @@
       <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="1">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -4846,7 +4884,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5">
-      <c r="A6" s="1">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -4872,7 +4910,7 @@
       <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" ht="16.5">
-      <c r="A7" s="1">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -4898,7 +4936,7 @@
       <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:17" ht="16.5">
-      <c r="A8" s="1">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -4930,7 +4968,7 @@
       <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" ht="16.5">
-      <c r="A9" s="1">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -4962,7 +5000,7 @@
       <c r="Q9" s="9"/>
     </row>
     <row r="10" spans="1:17" ht="16.5">
-      <c r="A10" s="1">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -4994,7 +5032,7 @@
       <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="1:17" ht="16.5">
-      <c r="A11" s="1">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -5026,7 +5064,7 @@
       <c r="Q11" s="9"/>
     </row>
     <row r="12" spans="1:17" ht="16.5">
-      <c r="A12" s="1">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -5052,7 +5090,7 @@
       <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17" ht="16.5">
-      <c r="A13" s="1">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5947,7 +5985,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" s="26" customFormat="1">
-      <c r="A42" s="26">
+      <c r="A42" s="18">
         <v>41</v>
       </c>
       <c r="B42" s="26" t="s">
@@ -5975,7 +6013,7 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="6">
+      <c r="A43" s="18">
         <v>42</v>
       </c>
       <c r="B43" s="44" t="s">
@@ -5998,7 +6036,7 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="6">
+      <c r="A44" s="18">
         <v>43</v>
       </c>
       <c r="B44" s="24" t="s">
@@ -6021,7 +6059,7 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="6">
+      <c r="A45" s="18">
         <v>44</v>
       </c>
       <c r="B45" s="24" t="s">
@@ -6044,7 +6082,7 @@
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="6">
+      <c r="A46" s="18">
         <v>45</v>
       </c>
       <c r="B46" s="24" t="s">
@@ -6403,7 +6441,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" s="49" customFormat="1">
-      <c r="A58" s="49">
+      <c r="A58" s="18">
         <v>57</v>
       </c>
       <c r="B58" s="49" t="s">
@@ -6431,7 +6469,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" s="49" customFormat="1">
-      <c r="A59" s="49">
+      <c r="A59" s="18">
         <v>58</v>
       </c>
       <c r="B59" s="49" t="s">
@@ -6459,7 +6497,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" s="49" customFormat="1">
-      <c r="A60" s="49">
+      <c r="A60" s="18">
         <v>59</v>
       </c>
       <c r="B60" s="49" t="s">
@@ -6487,7 +6525,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" s="61" customFormat="1">
-      <c r="A61" s="61">
+      <c r="A61" s="18">
         <v>60</v>
       </c>
       <c r="B61" s="61" t="s">
@@ -6515,7 +6553,7 @@
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="6">
+      <c r="A62" s="18">
         <v>61</v>
       </c>
       <c r="B62" s="15" t="s">
@@ -6539,7 +6577,7 @@
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="6">
+      <c r="A63" s="18">
         <v>62</v>
       </c>
       <c r="B63" s="15" t="s">
@@ -6558,6 +6596,198 @@
         <v>62</v>
       </c>
       <c r="L63" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="18" customFormat="1">
+      <c r="A64" s="18">
+        <v>63</v>
+      </c>
+      <c r="B64" s="73" t="s">
+        <v>521</v>
+      </c>
+      <c r="C64" s="75">
+        <v>1609200000</v>
+      </c>
+      <c r="D64" s="75">
+        <v>1609775999</v>
+      </c>
+      <c r="E64" s="74">
+        <v>58</v>
+      </c>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="77">
+        <v>1</v>
+      </c>
+      <c r="J64" s="77">
+        <v>0</v>
+      </c>
+      <c r="K64" s="72">
+        <v>63</v>
+      </c>
+      <c r="L64" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="18" customFormat="1">
+      <c r="A65" s="18">
+        <v>64</v>
+      </c>
+      <c r="B65" s="73" t="s">
+        <v>522</v>
+      </c>
+      <c r="C65" s="75">
+        <v>1609200000</v>
+      </c>
+      <c r="D65" s="75">
+        <v>1609775999</v>
+      </c>
+      <c r="E65" s="74">
+        <v>59</v>
+      </c>
+      <c r="F65" s="77"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="77">
+        <v>1</v>
+      </c>
+      <c r="J65" s="77">
+        <v>0</v>
+      </c>
+      <c r="K65" s="72">
+        <v>64</v>
+      </c>
+      <c r="L65" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="18" customFormat="1">
+      <c r="A66" s="18">
+        <v>65</v>
+      </c>
+      <c r="B66" s="73" t="s">
+        <v>523</v>
+      </c>
+      <c r="C66" s="75">
+        <v>1609200000</v>
+      </c>
+      <c r="D66" s="75">
+        <v>1609775999</v>
+      </c>
+      <c r="E66" s="74">
+        <v>60</v>
+      </c>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="77"/>
+      <c r="I66" s="77">
+        <v>1</v>
+      </c>
+      <c r="J66" s="77">
+        <v>0</v>
+      </c>
+      <c r="K66" s="72">
+        <v>65</v>
+      </c>
+      <c r="L66" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="18" customFormat="1">
+      <c r="A67" s="18">
+        <v>66</v>
+      </c>
+      <c r="B67" s="73" t="s">
+        <v>524</v>
+      </c>
+      <c r="C67" s="75">
+        <v>1609200000</v>
+      </c>
+      <c r="D67" s="75">
+        <v>1609775999</v>
+      </c>
+      <c r="E67" s="74">
+        <v>61</v>
+      </c>
+      <c r="F67" s="77"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="77"/>
+      <c r="I67" s="77">
+        <v>1</v>
+      </c>
+      <c r="J67" s="77">
+        <v>0</v>
+      </c>
+      <c r="K67" s="72">
+        <v>66</v>
+      </c>
+      <c r="L67" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="18" customFormat="1">
+      <c r="A68" s="18">
+        <v>67</v>
+      </c>
+      <c r="B68" s="73" t="s">
+        <v>525</v>
+      </c>
+      <c r="C68" s="75">
+        <v>1609200000</v>
+      </c>
+      <c r="D68" s="75">
+        <v>1609775999</v>
+      </c>
+      <c r="E68" s="74">
+        <v>62</v>
+      </c>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77">
+        <v>1</v>
+      </c>
+      <c r="J68" s="77">
+        <v>0</v>
+      </c>
+      <c r="K68" s="72">
+        <v>67</v>
+      </c>
+      <c r="L68" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="18" customFormat="1">
+      <c r="A69" s="18">
+        <v>68</v>
+      </c>
+      <c r="B69" s="73" t="s">
+        <v>526</v>
+      </c>
+      <c r="C69" s="75">
+        <v>1609200000</v>
+      </c>
+      <c r="D69" s="75">
+        <v>1609775999</v>
+      </c>
+      <c r="E69" s="74">
+        <v>63</v>
+      </c>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="77">
+        <v>1</v>
+      </c>
+      <c r="J69" s="77">
+        <v>0</v>
+      </c>
+      <c r="K69" s="72">
+        <v>68</v>
+      </c>
+      <c r="L69" s="72">
         <v>1</v>
       </c>
     </row>
@@ -6572,11 +6802,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7395,6 +7625,90 @@
       </c>
       <c r="D58" s="6">
         <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="17">
+        <v>58</v>
+      </c>
+      <c r="B59" s="17">
+        <v>58</v>
+      </c>
+      <c r="C59" s="71" t="s">
+        <v>589</v>
+      </c>
+      <c r="D59" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="17">
+        <v>59</v>
+      </c>
+      <c r="B60" s="17">
+        <v>59</v>
+      </c>
+      <c r="C60" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="D60" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="17">
+        <v>60</v>
+      </c>
+      <c r="B61" s="17">
+        <v>60</v>
+      </c>
+      <c r="C61" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="D61" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="17">
+        <v>61</v>
+      </c>
+      <c r="B62" s="17">
+        <v>61</v>
+      </c>
+      <c r="C62" s="71" t="s">
+        <v>259</v>
+      </c>
+      <c r="D62" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="17">
+        <v>62</v>
+      </c>
+      <c r="B63" s="17">
+        <v>62</v>
+      </c>
+      <c r="C63" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="D63" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="17">
+        <v>63</v>
+      </c>
+      <c r="B64" s="17">
+        <v>63</v>
+      </c>
+      <c r="C64" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="D64" s="72">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7449,13 +7763,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E385"/>
+  <dimension ref="A1:E421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B362" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B382" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C384" sqref="C384"/>
+      <selection pane="bottomRight" activeCell="D416" sqref="D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -12860,6 +13174,510 @@
         <v>1</v>
       </c>
     </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="13">
+        <v>385</v>
+      </c>
+      <c r="B386" s="76">
+        <v>63</v>
+      </c>
+      <c r="C386" s="76">
+        <v>11859</v>
+      </c>
+      <c r="D386" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="13">
+        <v>386</v>
+      </c>
+      <c r="B387" s="76">
+        <v>63</v>
+      </c>
+      <c r="C387" s="76">
+        <v>11860</v>
+      </c>
+      <c r="D387" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="13">
+        <v>387</v>
+      </c>
+      <c r="B388" s="76">
+        <v>63</v>
+      </c>
+      <c r="C388" s="76">
+        <v>11861</v>
+      </c>
+      <c r="D388" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="13">
+        <v>388</v>
+      </c>
+      <c r="B389" s="76">
+        <v>63</v>
+      </c>
+      <c r="C389" s="76">
+        <v>11862</v>
+      </c>
+      <c r="D389" s="76">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="13">
+        <v>389</v>
+      </c>
+      <c r="B390" s="76">
+        <v>63</v>
+      </c>
+      <c r="C390" s="76">
+        <v>11863</v>
+      </c>
+      <c r="D390" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="13">
+        <v>390</v>
+      </c>
+      <c r="B391" s="76">
+        <v>63</v>
+      </c>
+      <c r="C391" s="76">
+        <v>11864</v>
+      </c>
+      <c r="D391" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="13">
+        <v>391</v>
+      </c>
+      <c r="B392" s="76">
+        <v>64</v>
+      </c>
+      <c r="C392" s="76">
+        <v>11865</v>
+      </c>
+      <c r="D392" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="13">
+        <v>392</v>
+      </c>
+      <c r="B393" s="76">
+        <v>64</v>
+      </c>
+      <c r="C393" s="76">
+        <v>11866</v>
+      </c>
+      <c r="D393" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="13">
+        <v>393</v>
+      </c>
+      <c r="B394" s="76">
+        <v>64</v>
+      </c>
+      <c r="C394" s="76">
+        <v>11867</v>
+      </c>
+      <c r="D394" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="13">
+        <v>394</v>
+      </c>
+      <c r="B395" s="76">
+        <v>64</v>
+      </c>
+      <c r="C395" s="76">
+        <v>11868</v>
+      </c>
+      <c r="D395" s="76">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="13">
+        <v>395</v>
+      </c>
+      <c r="B396" s="76">
+        <v>64</v>
+      </c>
+      <c r="C396" s="76">
+        <v>11869</v>
+      </c>
+      <c r="D396" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="13">
+        <v>396</v>
+      </c>
+      <c r="B397" s="76">
+        <v>64</v>
+      </c>
+      <c r="C397" s="76">
+        <v>11870</v>
+      </c>
+      <c r="D397" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="13">
+        <v>397</v>
+      </c>
+      <c r="B398" s="76">
+        <v>65</v>
+      </c>
+      <c r="C398" s="76">
+        <v>11871</v>
+      </c>
+      <c r="D398" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="13">
+        <v>398</v>
+      </c>
+      <c r="B399" s="76">
+        <v>65</v>
+      </c>
+      <c r="C399" s="76">
+        <v>11872</v>
+      </c>
+      <c r="D399" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="13">
+        <v>399</v>
+      </c>
+      <c r="B400" s="76">
+        <v>65</v>
+      </c>
+      <c r="C400" s="76">
+        <v>11873</v>
+      </c>
+      <c r="D400" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="13">
+        <v>400</v>
+      </c>
+      <c r="B401" s="76">
+        <v>65</v>
+      </c>
+      <c r="C401" s="76">
+        <v>11874</v>
+      </c>
+      <c r="D401" s="76">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="13">
+        <v>401</v>
+      </c>
+      <c r="B402" s="76">
+        <v>65</v>
+      </c>
+      <c r="C402" s="76">
+        <v>11875</v>
+      </c>
+      <c r="D402" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="13">
+        <v>402</v>
+      </c>
+      <c r="B403" s="76">
+        <v>65</v>
+      </c>
+      <c r="C403" s="76">
+        <v>11876</v>
+      </c>
+      <c r="D403" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="13">
+        <v>403</v>
+      </c>
+      <c r="B404" s="76">
+        <v>66</v>
+      </c>
+      <c r="C404" s="76">
+        <v>11877</v>
+      </c>
+      <c r="D404" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="13">
+        <v>404</v>
+      </c>
+      <c r="B405" s="76">
+        <v>66</v>
+      </c>
+      <c r="C405" s="76">
+        <v>11878</v>
+      </c>
+      <c r="D405" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="13">
+        <v>405</v>
+      </c>
+      <c r="B406" s="76">
+        <v>66</v>
+      </c>
+      <c r="C406" s="76">
+        <v>11879</v>
+      </c>
+      <c r="D406" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="13">
+        <v>406</v>
+      </c>
+      <c r="B407" s="76">
+        <v>66</v>
+      </c>
+      <c r="C407" s="76">
+        <v>11880</v>
+      </c>
+      <c r="D407" s="76">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="13">
+        <v>407</v>
+      </c>
+      <c r="B408" s="76">
+        <v>66</v>
+      </c>
+      <c r="C408" s="76">
+        <v>11881</v>
+      </c>
+      <c r="D408" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="13">
+        <v>408</v>
+      </c>
+      <c r="B409" s="76">
+        <v>66</v>
+      </c>
+      <c r="C409" s="76">
+        <v>11882</v>
+      </c>
+      <c r="D409" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="13">
+        <v>409</v>
+      </c>
+      <c r="B410" s="76">
+        <v>67</v>
+      </c>
+      <c r="C410" s="76">
+        <v>11883</v>
+      </c>
+      <c r="D410" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="13">
+        <v>410</v>
+      </c>
+      <c r="B411" s="76">
+        <v>67</v>
+      </c>
+      <c r="C411" s="76">
+        <v>11884</v>
+      </c>
+      <c r="D411" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="13">
+        <v>411</v>
+      </c>
+      <c r="B412" s="76">
+        <v>67</v>
+      </c>
+      <c r="C412" s="76">
+        <v>11885</v>
+      </c>
+      <c r="D412" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="13">
+        <v>412</v>
+      </c>
+      <c r="B413" s="76">
+        <v>67</v>
+      </c>
+      <c r="C413" s="76">
+        <v>11886</v>
+      </c>
+      <c r="D413" s="76">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="13">
+        <v>413</v>
+      </c>
+      <c r="B414" s="76">
+        <v>67</v>
+      </c>
+      <c r="C414" s="76">
+        <v>11887</v>
+      </c>
+      <c r="D414" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="13">
+        <v>414</v>
+      </c>
+      <c r="B415" s="76">
+        <v>67</v>
+      </c>
+      <c r="C415" s="76">
+        <v>11888</v>
+      </c>
+      <c r="D415" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="13">
+        <v>415</v>
+      </c>
+      <c r="B416" s="76">
+        <v>68</v>
+      </c>
+      <c r="C416" s="76">
+        <v>11889</v>
+      </c>
+      <c r="D416" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="13">
+        <v>416</v>
+      </c>
+      <c r="B417" s="76">
+        <v>68</v>
+      </c>
+      <c r="C417" s="76">
+        <v>11890</v>
+      </c>
+      <c r="D417" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="13">
+        <v>417</v>
+      </c>
+      <c r="B418" s="76">
+        <v>68</v>
+      </c>
+      <c r="C418" s="76">
+        <v>11891</v>
+      </c>
+      <c r="D418" s="76">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="13">
+        <v>418</v>
+      </c>
+      <c r="B419" s="76">
+        <v>68</v>
+      </c>
+      <c r="C419" s="76">
+        <v>11892</v>
+      </c>
+      <c r="D419" s="76">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="13">
+        <v>419</v>
+      </c>
+      <c r="B420" s="76">
+        <v>68</v>
+      </c>
+      <c r="C420" s="76">
+        <v>11893</v>
+      </c>
+      <c r="D420" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="13">
+        <v>420</v>
+      </c>
+      <c r="B421" s="76">
+        <v>68</v>
+      </c>
+      <c r="C421" s="76">
+        <v>11894</v>
+      </c>
+      <c r="D421" s="76">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12869,11 +13687,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F385"/>
+  <dimension ref="A1:F421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D388" sqref="D388"/>
+      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C400" sqref="C400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18940,6 +19758,618 @@
       </c>
       <c r="E385" s="45" t="s">
         <v>677</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="77">
+        <v>385</v>
+      </c>
+      <c r="B386" s="76">
+        <v>11859</v>
+      </c>
+      <c r="C386" s="71" t="s">
+        <v>528</v>
+      </c>
+      <c r="D386" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E386" s="78" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="77">
+        <v>386</v>
+      </c>
+      <c r="B387" s="76">
+        <v>11860</v>
+      </c>
+      <c r="C387" s="71" t="s">
+        <v>529</v>
+      </c>
+      <c r="D387" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E387" s="78" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="77">
+        <v>387</v>
+      </c>
+      <c r="B388" s="76">
+        <v>11861</v>
+      </c>
+      <c r="C388" s="71" t="s">
+        <v>530</v>
+      </c>
+      <c r="D388" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E388" s="78" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="77">
+        <v>388</v>
+      </c>
+      <c r="B389" s="76">
+        <v>11862</v>
+      </c>
+      <c r="C389" s="71" t="s">
+        <v>531</v>
+      </c>
+      <c r="D389" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E389" s="78" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="77">
+        <v>389</v>
+      </c>
+      <c r="B390" s="76">
+        <v>11863</v>
+      </c>
+      <c r="C390" s="71" t="s">
+        <v>532</v>
+      </c>
+      <c r="D390" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E390" s="78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="77">
+        <v>390</v>
+      </c>
+      <c r="B391" s="76">
+        <v>11864</v>
+      </c>
+      <c r="C391" s="71" t="s">
+        <v>533</v>
+      </c>
+      <c r="D391" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E391" s="78" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="77">
+        <v>391</v>
+      </c>
+      <c r="B392" s="76">
+        <v>11865</v>
+      </c>
+      <c r="C392" s="71" t="s">
+        <v>534</v>
+      </c>
+      <c r="D392" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E392" s="78" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="77">
+        <v>392</v>
+      </c>
+      <c r="B393" s="76">
+        <v>11866</v>
+      </c>
+      <c r="C393" s="71" t="s">
+        <v>535</v>
+      </c>
+      <c r="D393" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E393" s="78" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="77">
+        <v>393</v>
+      </c>
+      <c r="B394" s="76">
+        <v>11867</v>
+      </c>
+      <c r="C394" s="71" t="s">
+        <v>536</v>
+      </c>
+      <c r="D394" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E394" s="78" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="77">
+        <v>394</v>
+      </c>
+      <c r="B395" s="76">
+        <v>11868</v>
+      </c>
+      <c r="C395" s="71" t="s">
+        <v>537</v>
+      </c>
+      <c r="D395" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E395" s="78" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="77">
+        <v>395</v>
+      </c>
+      <c r="B396" s="76">
+        <v>11869</v>
+      </c>
+      <c r="C396" s="71" t="s">
+        <v>538</v>
+      </c>
+      <c r="D396" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E396" s="78" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="77">
+        <v>396</v>
+      </c>
+      <c r="B397" s="76">
+        <v>11870</v>
+      </c>
+      <c r="C397" s="71" t="s">
+        <v>539</v>
+      </c>
+      <c r="D397" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E397" s="78" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="77">
+        <v>397</v>
+      </c>
+      <c r="B398" s="76">
+        <v>11871</v>
+      </c>
+      <c r="C398" s="71" t="s">
+        <v>539</v>
+      </c>
+      <c r="D398" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E398" s="78" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="77">
+        <v>398</v>
+      </c>
+      <c r="B399" s="76">
+        <v>11872</v>
+      </c>
+      <c r="C399" s="71" t="s">
+        <v>540</v>
+      </c>
+      <c r="D399" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E399" s="78" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="77">
+        <v>399</v>
+      </c>
+      <c r="B400" s="76">
+        <v>11873</v>
+      </c>
+      <c r="C400" s="71" t="s">
+        <v>541</v>
+      </c>
+      <c r="D400" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E400" s="78" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="77">
+        <v>400</v>
+      </c>
+      <c r="B401" s="76">
+        <v>11874</v>
+      </c>
+      <c r="C401" s="71" t="s">
+        <v>542</v>
+      </c>
+      <c r="D401" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E401" s="78" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="77">
+        <v>401</v>
+      </c>
+      <c r="B402" s="76">
+        <v>11875</v>
+      </c>
+      <c r="C402" s="71" t="s">
+        <v>543</v>
+      </c>
+      <c r="D402" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E402" s="78" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="77">
+        <v>402</v>
+      </c>
+      <c r="B403" s="76">
+        <v>11876</v>
+      </c>
+      <c r="C403" s="71" t="s">
+        <v>544</v>
+      </c>
+      <c r="D403" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E403" s="78" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="77">
+        <v>403</v>
+      </c>
+      <c r="B404" s="76">
+        <v>11877</v>
+      </c>
+      <c r="C404" s="71" t="s">
+        <v>545</v>
+      </c>
+      <c r="D404" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E404" s="78" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="77">
+        <v>404</v>
+      </c>
+      <c r="B405" s="76">
+        <v>11878</v>
+      </c>
+      <c r="C405" s="71" t="s">
+        <v>546</v>
+      </c>
+      <c r="D405" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E405" s="78" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="77">
+        <v>405</v>
+      </c>
+      <c r="B406" s="76">
+        <v>11879</v>
+      </c>
+      <c r="C406" s="71" t="s">
+        <v>547</v>
+      </c>
+      <c r="D406" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E406" s="78" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="77">
+        <v>406</v>
+      </c>
+      <c r="B407" s="76">
+        <v>11880</v>
+      </c>
+      <c r="C407" s="71" t="s">
+        <v>548</v>
+      </c>
+      <c r="D407" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E407" s="78" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="77">
+        <v>407</v>
+      </c>
+      <c r="B408" s="76">
+        <v>11881</v>
+      </c>
+      <c r="C408" s="71" t="s">
+        <v>549</v>
+      </c>
+      <c r="D408" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E408" s="78" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="77">
+        <v>408</v>
+      </c>
+      <c r="B409" s="76">
+        <v>11882</v>
+      </c>
+      <c r="C409" s="71" t="s">
+        <v>550</v>
+      </c>
+      <c r="D409" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E409" s="78" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="77">
+        <v>409</v>
+      </c>
+      <c r="B410" s="76">
+        <v>11883</v>
+      </c>
+      <c r="C410" s="71" t="s">
+        <v>551</v>
+      </c>
+      <c r="D410" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E410" s="78" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="77">
+        <v>410</v>
+      </c>
+      <c r="B411" s="76">
+        <v>11884</v>
+      </c>
+      <c r="C411" s="71" t="s">
+        <v>552</v>
+      </c>
+      <c r="D411" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E411" s="78" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="77">
+        <v>411</v>
+      </c>
+      <c r="B412" s="76">
+        <v>11885</v>
+      </c>
+      <c r="C412" s="71" t="s">
+        <v>553</v>
+      </c>
+      <c r="D412" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E412" s="78" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="77">
+        <v>412</v>
+      </c>
+      <c r="B413" s="76">
+        <v>11886</v>
+      </c>
+      <c r="C413" s="71" t="s">
+        <v>554</v>
+      </c>
+      <c r="D413" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E413" s="78" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="77">
+        <v>413</v>
+      </c>
+      <c r="B414" s="76">
+        <v>11887</v>
+      </c>
+      <c r="C414" s="71" t="s">
+        <v>555</v>
+      </c>
+      <c r="D414" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E414" s="78" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="77">
+        <v>414</v>
+      </c>
+      <c r="B415" s="76">
+        <v>11888</v>
+      </c>
+      <c r="C415" s="71" t="s">
+        <v>556</v>
+      </c>
+      <c r="D415" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E415" s="78" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="77">
+        <v>415</v>
+      </c>
+      <c r="B416" s="76">
+        <v>11889</v>
+      </c>
+      <c r="C416" s="71" t="s">
+        <v>557</v>
+      </c>
+      <c r="D416" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E416" s="78" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="77">
+        <v>416</v>
+      </c>
+      <c r="B417" s="76">
+        <v>11890</v>
+      </c>
+      <c r="C417" s="71" t="s">
+        <v>558</v>
+      </c>
+      <c r="D417" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E417" s="78" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="77">
+        <v>417</v>
+      </c>
+      <c r="B418" s="76">
+        <v>11891</v>
+      </c>
+      <c r="C418" s="71" t="s">
+        <v>559</v>
+      </c>
+      <c r="D418" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E418" s="78" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="77">
+        <v>418</v>
+      </c>
+      <c r="B419" s="76">
+        <v>11892</v>
+      </c>
+      <c r="C419" s="71" t="s">
+        <v>560</v>
+      </c>
+      <c r="D419" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E419" s="78" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="77">
+        <v>419</v>
+      </c>
+      <c r="B420" s="76">
+        <v>11893</v>
+      </c>
+      <c r="C420" s="71" t="s">
+        <v>561</v>
+      </c>
+      <c r="D420" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E420" s="78" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="77">
+        <v>420</v>
+      </c>
+      <c r="B421" s="76">
+        <v>11894</v>
+      </c>
+      <c r="C421" s="71" t="s">
+        <v>562</v>
+      </c>
+      <c r="D421" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E421" s="78" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>
